--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/SCProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C490B-014A-A04F-9027-749164DA8994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71606E07-3E0C-FC4F-B0EE-E7EEEC7850F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="3320" windowWidth="28040" windowHeight="17440" xr2:uid="{D718257C-6E83-9D45-B382-AF50372470C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="409">
   <si>
     <t>GSE145370</t>
   </si>
@@ -1192,6 +1192,75 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_94</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_95</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_244</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_245</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_350</t>
+  </si>
+  <si>
+    <t>amp_batch_ID_351</t>
+  </si>
+  <si>
+    <t>GSE154826</t>
+  </si>
+  <si>
+    <t>Patient60</t>
+  </si>
+  <si>
+    <t>Patient61</t>
+  </si>
+  <si>
+    <t>Patient62</t>
+  </si>
+  <si>
+    <t>CD2</t>
+  </si>
+  <si>
+    <t>LN10</t>
+  </si>
+  <si>
+    <t>LT10</t>
+  </si>
+  <si>
+    <t>LN11</t>
+  </si>
+  <si>
+    <t>LT11</t>
+  </si>
+  <si>
+    <t>LN12</t>
+  </si>
+  <si>
+    <t>LT12</t>
+  </si>
+  <si>
+    <t>GSM4680845</t>
+  </si>
+  <si>
+    <t>GSM4680847</t>
+  </si>
+  <si>
+    <t>GSM4680899</t>
+  </si>
+  <si>
+    <t>GSM4680900</t>
+  </si>
+  <si>
+    <t>GSM4680837</t>
+  </si>
+  <si>
+    <t>GSM4680838</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1D747D-427B-9842-BF18-609DF161EEC3}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4480,6 +4549,162 @@
         <v>316</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>397</v>
+      </c>
+      <c r="B113" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" t="s">
+        <v>170</v>
+      </c>
+      <c r="G113" t="s">
+        <v>393</v>
+      </c>
+      <c r="H113" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>398</v>
+      </c>
+      <c r="B114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s">
+        <v>392</v>
+      </c>
+      <c r="E114" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" t="s">
+        <v>170</v>
+      </c>
+      <c r="G114" t="s">
+        <v>393</v>
+      </c>
+      <c r="H114" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>399</v>
+      </c>
+      <c r="B115" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" t="s">
+        <v>392</v>
+      </c>
+      <c r="E115" t="s">
+        <v>168</v>
+      </c>
+      <c r="F115" t="s">
+        <v>170</v>
+      </c>
+      <c r="G115" t="s">
+        <v>394</v>
+      </c>
+      <c r="H115" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>400</v>
+      </c>
+      <c r="B116" t="s">
+        <v>389</v>
+      </c>
+      <c r="C116" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+      <c r="F116" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" t="s">
+        <v>394</v>
+      </c>
+      <c r="H116" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>401</v>
+      </c>
+      <c r="B117" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" t="s">
+        <v>405</v>
+      </c>
+      <c r="D117" t="s">
+        <v>392</v>
+      </c>
+      <c r="E117" t="s">
+        <v>168</v>
+      </c>
+      <c r="F117" t="s">
+        <v>170</v>
+      </c>
+      <c r="G117" t="s">
+        <v>395</v>
+      </c>
+      <c r="H117" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" t="s">
+        <v>406</v>
+      </c>
+      <c r="D118" t="s">
+        <v>392</v>
+      </c>
+      <c r="E118" t="s">
+        <v>167</v>
+      </c>
+      <c r="F118" t="s">
+        <v>170</v>
+      </c>
+      <c r="G118" t="s">
+        <v>395</v>
+      </c>
+      <c r="H118" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A94A44-EB8D-1844-856E-65B3537D7761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322043C6-1A8D-6A44-B219-EC749665DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="500" windowWidth="51200" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Tumor</t>
   </si>
   <si>
-    <t>esophagus</t>
-  </si>
-  <si>
     <t>Patient1</t>
   </si>
   <si>
@@ -1914,9 +1911,6 @@
     <t>GSM5352995</t>
   </si>
   <si>
-    <t>GSE17621</t>
-  </si>
-  <si>
     <t>Met</t>
   </si>
   <si>
@@ -2287,6 +2281,12 @@
   </si>
   <si>
     <t>LN19</t>
+  </si>
+  <si>
+    <t>GSE176021</t>
+  </si>
+  <si>
+    <t>Esophagus</t>
   </si>
 </sst>
 </file>
@@ -2351,17 +2351,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2586,7 +2576,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F2" sqref="F2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2640,24 +2630,24 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2666,24 +2656,24 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -2692,24 +2682,24 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -2718,24 +2708,24 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -2744,24 +2734,24 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2770,24 +2760,24 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -2796,5733 +2786,5733 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>753</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="D46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="D87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="D90" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="D98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="D114" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D118" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322043C6-1A8D-6A44-B219-EC749665DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752553C7-B88F-C74F-A4F0-B7181EC3A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="764">
   <si>
     <t>SampleLabel</t>
   </si>
@@ -2287,13 +2287,43 @@
   </si>
   <si>
     <t>Esophagus</t>
+  </si>
+  <si>
+    <t>MB1</t>
+  </si>
+  <si>
+    <t>melanoma_K409_B_GEX</t>
+  </si>
+  <si>
+    <t>GSM4455932</t>
+  </si>
+  <si>
+    <t>ML2</t>
+  </si>
+  <si>
+    <t>GSM4455938</t>
+  </si>
+  <si>
+    <t>Patient76</t>
+  </si>
+  <si>
+    <t>melanoma_K411_LN_GEX</t>
+  </si>
+  <si>
+    <t>melanoma_K411_blood_GEX</t>
+  </si>
+  <si>
+    <t>GSM4455937</t>
+  </si>
+  <si>
+    <t>MB2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2320,6 +2350,24 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2341,17 +2389,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2575,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230:H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8515,9 +8577,84 @@
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E230" t="s">
+        <v>234</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9289,7 +9426,10 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I228 A1:A1048576">
+  <conditionalFormatting sqref="I2:I228 A1:A228 A231:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229:A230">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Other computers/iMac/utility/summaryInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2AF83798-5634-A040-BDBC-93BAF7FC4E06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E57118-1158-134C-BCC5-A22C6CF1DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13840" yWindow="10800" windowWidth="34580" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6tBdJCFxaTgjtse94ZjZvYTMgNg=="/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8463" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9551" uniqueCount="1708">
   <si>
     <t>SampleLabel</t>
   </si>
@@ -4567,6 +4577,588 @@
   </si>
   <si>
     <t>Neoadjuvant Chemotherapy + Pembrolizumab</t>
+  </si>
+  <si>
+    <t>CRLM08_PT</t>
+  </si>
+  <si>
+    <t>CRLM08_PN</t>
+  </si>
+  <si>
+    <t>CRLM08_LN</t>
+  </si>
+  <si>
+    <t>CRLM08_MT</t>
+  </si>
+  <si>
+    <t>CRLM08_MN</t>
+  </si>
+  <si>
+    <t>CRLM08_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM09_PT</t>
+  </si>
+  <si>
+    <t>CRLM09_PN</t>
+  </si>
+  <si>
+    <t>CRLM09_LN</t>
+  </si>
+  <si>
+    <t>CRLM09_MT</t>
+  </si>
+  <si>
+    <t>CRLM09_MN</t>
+  </si>
+  <si>
+    <t>CRLM09_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM10_PT</t>
+  </si>
+  <si>
+    <t>CRLM10_PN</t>
+  </si>
+  <si>
+    <t>CRLM10_LN</t>
+  </si>
+  <si>
+    <t>CRLM10_MT</t>
+  </si>
+  <si>
+    <t>CRLM10_MN</t>
+  </si>
+  <si>
+    <t>CRLM10_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM11_PT</t>
+  </si>
+  <si>
+    <t>CRLM11_PN</t>
+  </si>
+  <si>
+    <t>CRLM11_LN</t>
+  </si>
+  <si>
+    <t>CRLM11_MT</t>
+  </si>
+  <si>
+    <t>CRLM11_MN</t>
+  </si>
+  <si>
+    <t>CRLM11_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM12_PT</t>
+  </si>
+  <si>
+    <t>CRLM12_PN</t>
+  </si>
+  <si>
+    <t>CRLM12_LN</t>
+  </si>
+  <si>
+    <t>CRLM12_MT</t>
+  </si>
+  <si>
+    <t>CRLM12_MN</t>
+  </si>
+  <si>
+    <t>CRLM12_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM13_PT</t>
+  </si>
+  <si>
+    <t>CRLM13_PN</t>
+  </si>
+  <si>
+    <t>CRLM13_LN</t>
+  </si>
+  <si>
+    <t>CRLM13_MT</t>
+  </si>
+  <si>
+    <t>CRLM13_MN</t>
+  </si>
+  <si>
+    <t>CRLM13_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM14_PT</t>
+  </si>
+  <si>
+    <t>CRLM14_PN</t>
+  </si>
+  <si>
+    <t>CRLM14_LN</t>
+  </si>
+  <si>
+    <t>CRLM14_MT</t>
+  </si>
+  <si>
+    <t>CRLM14_MN</t>
+  </si>
+  <si>
+    <t>CRLM14_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM15_PT</t>
+  </si>
+  <si>
+    <t>CRLM15_PN</t>
+  </si>
+  <si>
+    <t>CRLM15_LN</t>
+  </si>
+  <si>
+    <t>CRLM15_MT</t>
+  </si>
+  <si>
+    <t>CRLM15_MN</t>
+  </si>
+  <si>
+    <t>CRLM15_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM16_PT</t>
+  </si>
+  <si>
+    <t>CRLM16_PN</t>
+  </si>
+  <si>
+    <t>CRLM16_LN</t>
+  </si>
+  <si>
+    <t>CRLM16_MT</t>
+  </si>
+  <si>
+    <t>CRLM16_MN</t>
+  </si>
+  <si>
+    <t>CRLM16_PBMC</t>
+  </si>
+  <si>
+    <t>CRLM17_PT</t>
+  </si>
+  <si>
+    <t>CRLM17_PN</t>
+  </si>
+  <si>
+    <t>CRLM17_LN</t>
+  </si>
+  <si>
+    <t>CRLM17_MT</t>
+  </si>
+  <si>
+    <t>CRLM17_MN</t>
+  </si>
+  <si>
+    <t>CRLM17_PBMC</t>
+  </si>
+  <si>
+    <t>CT4</t>
+  </si>
+  <si>
+    <t>CN4.1</t>
+  </si>
+  <si>
+    <t>CL4</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>CN4.2</t>
+  </si>
+  <si>
+    <t>CB4</t>
+  </si>
+  <si>
+    <t>CT5</t>
+  </si>
+  <si>
+    <t>CN5.1</t>
+  </si>
+  <si>
+    <t>CL5</t>
+  </si>
+  <si>
+    <t>CM5</t>
+  </si>
+  <si>
+    <t>CN5.2</t>
+  </si>
+  <si>
+    <t>CB5</t>
+  </si>
+  <si>
+    <t>CT6</t>
+  </si>
+  <si>
+    <t>CN6.1</t>
+  </si>
+  <si>
+    <t>CL6</t>
+  </si>
+  <si>
+    <t>CM6</t>
+  </si>
+  <si>
+    <t>CN6.2</t>
+  </si>
+  <si>
+    <t>CB6</t>
+  </si>
+  <si>
+    <t>CT7</t>
+  </si>
+  <si>
+    <t>CN7.1</t>
+  </si>
+  <si>
+    <t>CL7</t>
+  </si>
+  <si>
+    <t>CM7</t>
+  </si>
+  <si>
+    <t>CN7.2</t>
+  </si>
+  <si>
+    <t>CB7</t>
+  </si>
+  <si>
+    <t>CT8</t>
+  </si>
+  <si>
+    <t>CN8.1</t>
+  </si>
+  <si>
+    <t>CL8</t>
+  </si>
+  <si>
+    <t>CM8</t>
+  </si>
+  <si>
+    <t>CN8.2</t>
+  </si>
+  <si>
+    <t>CB8</t>
+  </si>
+  <si>
+    <t>CT9</t>
+  </si>
+  <si>
+    <t>CN9.1</t>
+  </si>
+  <si>
+    <t>CL9</t>
+  </si>
+  <si>
+    <t>CM9</t>
+  </si>
+  <si>
+    <t>CN9.2</t>
+  </si>
+  <si>
+    <t>CB9</t>
+  </si>
+  <si>
+    <t>CT10</t>
+  </si>
+  <si>
+    <t>CN10.1</t>
+  </si>
+  <si>
+    <t>CL10</t>
+  </si>
+  <si>
+    <t>CM10</t>
+  </si>
+  <si>
+    <t>CN10.2</t>
+  </si>
+  <si>
+    <t>CB10</t>
+  </si>
+  <si>
+    <t>CT11</t>
+  </si>
+  <si>
+    <t>CN11.1</t>
+  </si>
+  <si>
+    <t>CL11</t>
+  </si>
+  <si>
+    <t>CM11</t>
+  </si>
+  <si>
+    <t>CN11.2</t>
+  </si>
+  <si>
+    <t>CB11</t>
+  </si>
+  <si>
+    <t>CT12</t>
+  </si>
+  <si>
+    <t>CN12.1</t>
+  </si>
+  <si>
+    <t>CL12</t>
+  </si>
+  <si>
+    <t>CM12</t>
+  </si>
+  <si>
+    <t>CN12.2</t>
+  </si>
+  <si>
+    <t>CB12</t>
+  </si>
+  <si>
+    <t>CT13</t>
+  </si>
+  <si>
+    <t>CN13.1</t>
+  </si>
+  <si>
+    <t>CL13</t>
+  </si>
+  <si>
+    <t>CM13</t>
+  </si>
+  <si>
+    <t>CN13.2</t>
+  </si>
+  <si>
+    <t>CB13</t>
+  </si>
+  <si>
+    <t>GSE164522</t>
+  </si>
+  <si>
+    <t>Metastasis</t>
+  </si>
+  <si>
+    <t>Patient192</t>
+  </si>
+  <si>
+    <t>Patient193</t>
+  </si>
+  <si>
+    <t>Patient194</t>
+  </si>
+  <si>
+    <t>Patient195</t>
+  </si>
+  <si>
+    <t>Patient196</t>
+  </si>
+  <si>
+    <t>Patient197</t>
+  </si>
+  <si>
+    <t>Patient198</t>
+  </si>
+  <si>
+    <t>Patient199</t>
+  </si>
+  <si>
+    <t>Patient200</t>
+  </si>
+  <si>
+    <t>Patient201</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Patient202</t>
+  </si>
+  <si>
+    <t>Patient203</t>
+  </si>
+  <si>
+    <t>Patient204</t>
+  </si>
+  <si>
+    <t>Patient205</t>
+  </si>
+  <si>
+    <t>Patient206</t>
+  </si>
+  <si>
+    <t>Patient207</t>
+  </si>
+  <si>
+    <t>Patient208</t>
+  </si>
+  <si>
+    <t>Patient209</t>
+  </si>
+  <si>
+    <t>T021518_TRM [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798827</t>
+  </si>
+  <si>
+    <t>T022719_TRM [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798828</t>
+  </si>
+  <si>
+    <t>T082219_TRM [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798829</t>
+  </si>
+  <si>
+    <t>T021518_ReCir [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798830</t>
+  </si>
+  <si>
+    <t>T022719_ReCir [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798832</t>
+  </si>
+  <si>
+    <t>T082219_ReCir [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798833</t>
+  </si>
+  <si>
+    <t>T042719CD8_2 [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798834</t>
+  </si>
+  <si>
+    <t>T042719CD8_3 [GEX]</t>
+  </si>
+  <si>
+    <t>GSM5798835</t>
+  </si>
+  <si>
+    <t>T041218-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828140</t>
+  </si>
+  <si>
+    <t>T051110-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828141</t>
+  </si>
+  <si>
+    <t>T051209-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828142</t>
+  </si>
+  <si>
+    <t>T072817-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828143</t>
+  </si>
+  <si>
+    <t>T042718-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828144</t>
+  </si>
+  <si>
+    <t>T021518-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828145</t>
+  </si>
+  <si>
+    <t>T022719-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828146</t>
+  </si>
+  <si>
+    <t>T082219-TRM-GEX</t>
+  </si>
+  <si>
+    <t>GSM5828147</t>
+  </si>
+  <si>
+    <t>GSE195486</t>
+  </si>
+  <si>
+    <t>Patient210</t>
+  </si>
+  <si>
+    <t>Patient211</t>
+  </si>
+  <si>
+    <t>Patient212</t>
+  </si>
+  <si>
+    <t>Patient213</t>
+  </si>
+  <si>
+    <t>OT7.1</t>
+  </si>
+  <si>
+    <t>OT7.2</t>
+  </si>
+  <si>
+    <t>OT8.1</t>
+  </si>
+  <si>
+    <t>OT8.2</t>
+  </si>
+  <si>
+    <t>OT9.1</t>
+  </si>
+  <si>
+    <t>OT9.2</t>
+  </si>
+  <si>
+    <t>OT10.1</t>
+  </si>
+  <si>
+    <t>OT10.2</t>
+  </si>
+  <si>
+    <t>OT11</t>
+  </si>
+  <si>
+    <t>OT12</t>
+  </si>
+  <si>
+    <t>OT13</t>
+  </si>
+  <si>
+    <t>OT14</t>
+  </si>
+  <si>
+    <t>OT15</t>
+  </si>
+  <si>
+    <t>OT16</t>
+  </si>
+  <si>
+    <t>OT17</t>
+  </si>
+  <si>
+    <t>OT18</t>
   </si>
 </sst>
 </file>
@@ -4625,337 +5217,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5189,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E213" workbookViewId="0">
-      <selection activeCell="E11" sqref="E1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="E498" sqref="E498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31499,101 +31761,3619 @@
         <v>229</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450" t="s">
+        <v>61</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H450" t="s">
+        <v>14</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N450" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O450" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P450" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="451" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F451" t="s">
+        <v>61</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H451" t="s">
+        <v>14</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M451" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O451" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P451" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="452" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F452" t="s">
+        <v>61</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H452" t="s">
+        <v>14</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M452" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P452" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="453" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F453" t="s">
+        <v>61</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H453" t="s">
+        <v>14</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M453" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N453" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O453" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P453" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="454" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F454" t="s">
+        <v>61</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H454" t="s">
+        <v>14</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L454" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M454" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O454" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P454" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="455" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F455" t="s">
+        <v>61</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H455" t="s">
+        <v>14</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M455" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N455" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O455" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P455" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F456" t="s">
+        <v>61</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H456" t="s">
+        <v>14</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L456" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M456" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O456" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P456" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F457" t="s">
+        <v>61</v>
+      </c>
+      <c r="G457" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H457" t="s">
+        <v>14</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M457" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O457" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P457" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F458" t="s">
+        <v>61</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H458" t="s">
+        <v>14</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M458" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O458" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P458" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="459" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F459" t="s">
+        <v>61</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H459" t="s">
+        <v>14</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M459" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N459" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O459" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P459" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="460" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F460" t="s">
+        <v>61</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H460" t="s">
+        <v>14</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L460" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M460" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N460" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O460" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P460" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F461" t="s">
+        <v>61</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H461" t="s">
+        <v>14</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L461" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N461" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O461" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P461" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F462" t="s">
+        <v>61</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H462" t="s">
+        <v>14</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M462" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N462" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O462" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P462" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F463" t="s">
+        <v>61</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H463" t="s">
+        <v>14</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L463" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M463" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N463" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O463" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P463" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F464" t="s">
+        <v>61</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H464" t="s">
+        <v>14</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M464" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N464" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P464" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F465" t="s">
+        <v>61</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H465" t="s">
+        <v>14</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L465" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N465" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O465" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P465" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F466" t="s">
+        <v>61</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H466" t="s">
+        <v>14</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L466" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M466" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O466" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P466" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F467" t="s">
+        <v>61</v>
+      </c>
+      <c r="G467" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H467" t="s">
+        <v>14</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M467" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N467" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O467" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P467" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F468" t="s">
+        <v>61</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H468" t="s">
+        <v>14</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M468" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N468" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O468" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P468" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F469" t="s">
+        <v>61</v>
+      </c>
+      <c r="G469" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H469" t="s">
+        <v>14</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J469" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L469" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N469" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O469" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P469" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F470" t="s">
+        <v>61</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H470" t="s">
+        <v>14</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J470" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L470" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M470" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O470" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P470" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F471" t="s">
+        <v>61</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H471" t="s">
+        <v>14</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J471" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L471" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M471" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O471" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P471" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F472" t="s">
+        <v>61</v>
+      </c>
+      <c r="G472" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H472" t="s">
+        <v>14</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J472" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M472" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N472" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O472" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P472" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F473" t="s">
+        <v>61</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H473" t="s">
+        <v>14</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L473" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M473" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N473" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O473" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P473" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F474" t="s">
+        <v>61</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H474" t="s">
+        <v>14</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L474" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M474" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N474" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O474" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P474" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F475" t="s">
+        <v>61</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H475" t="s">
+        <v>14</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M475" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N475" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O475" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P475" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F476" t="s">
+        <v>61</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H476" t="s">
+        <v>14</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L476" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M476" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O476" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P476" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F477" t="s">
+        <v>61</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H477" t="s">
+        <v>14</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L477" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M477" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N477" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O477" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P477" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F478" t="s">
+        <v>61</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H478" t="s">
+        <v>14</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M478" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O478" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P478" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F479" t="s">
+        <v>61</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H479" t="s">
+        <v>14</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L479" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M479" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O479" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P479" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F480" t="s">
+        <v>61</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H480" t="s">
+        <v>14</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M480" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N480" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O480" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P480" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F481" t="s">
+        <v>61</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H481" t="s">
+        <v>14</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N481" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O481" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P481" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F482" t="s">
+        <v>61</v>
+      </c>
+      <c r="G482" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H482" t="s">
+        <v>14</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N482" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O482" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P482" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F483" t="s">
+        <v>61</v>
+      </c>
+      <c r="G483" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H483" t="s">
+        <v>14</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N483" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O483" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P483" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F484" t="s">
+        <v>61</v>
+      </c>
+      <c r="G484" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H484" t="s">
+        <v>14</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M484" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P484" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F485" t="s">
+        <v>61</v>
+      </c>
+      <c r="G485" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H485" t="s">
+        <v>14</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M485" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O485" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P485" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F486" t="s">
+        <v>61</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H486" t="s">
+        <v>14</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P486" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F487" t="s">
+        <v>61</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H487" t="s">
+        <v>14</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M487" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P487" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F488" t="s">
+        <v>61</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H488" t="s">
+        <v>14</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M488" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P488" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F489" t="s">
+        <v>61</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H489" t="s">
+        <v>14</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M489" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O489" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P489" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F490" t="s">
+        <v>61</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H490" t="s">
+        <v>14</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P490" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F491" t="s">
+        <v>61</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H491" t="s">
+        <v>14</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N491" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P491" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F492" t="s">
+        <v>61</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H492" t="s">
+        <v>14</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P492" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F493" t="s">
+        <v>61</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H493" t="s">
+        <v>14</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M493" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O493" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P493" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F494" t="s">
+        <v>61</v>
+      </c>
+      <c r="G494" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H494" t="s">
+        <v>14</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M494" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O494" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P494" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F495" t="s">
+        <v>61</v>
+      </c>
+      <c r="G495" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H495" t="s">
+        <v>14</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P495" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F496" t="s">
+        <v>61</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H496" t="s">
+        <v>14</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M496" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P496" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F497" t="s">
+        <v>61</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H497" t="s">
+        <v>14</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N497" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O497" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P497" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F498" t="s">
+        <v>61</v>
+      </c>
+      <c r="G498" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H498" t="s">
+        <v>14</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M498" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O498" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P498" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F499" t="s">
+        <v>61</v>
+      </c>
+      <c r="G499" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H499" t="s">
+        <v>14</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N499" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O499" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P499" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F500" t="s">
+        <v>61</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H500" t="s">
+        <v>14</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M500" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P500" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F501" t="s">
+        <v>61</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H501" t="s">
+        <v>14</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M501" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P501" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F502" t="s">
+        <v>61</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H502" t="s">
+        <v>14</v>
+      </c>
+      <c r="I502" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M502" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N502" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O502" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P502" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F503" t="s">
+        <v>61</v>
+      </c>
+      <c r="G503" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H503" t="s">
+        <v>14</v>
+      </c>
+      <c r="I503" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M503" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N503" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O503" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P503" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F504" t="s">
+        <v>61</v>
+      </c>
+      <c r="G504" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H504" t="s">
+        <v>14</v>
+      </c>
+      <c r="I504" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M504" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N504" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P504" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F505" t="s">
+        <v>61</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H505" t="s">
+        <v>14</v>
+      </c>
+      <c r="I505" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M505" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N505" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O505" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P505" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F506" t="s">
+        <v>61</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H506" t="s">
+        <v>14</v>
+      </c>
+      <c r="I506" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L506" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M506" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P506" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F507" t="s">
+        <v>61</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H507" t="s">
+        <v>14</v>
+      </c>
+      <c r="I507" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J507" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K507" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L507" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M507" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N507" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P507" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F508" t="s">
+        <v>61</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H508" t="s">
+        <v>14</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K508" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L508" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M508" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N508" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O508" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P508" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F509" t="s">
+        <v>61</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H509" t="s">
+        <v>14</v>
+      </c>
+      <c r="I509" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J509" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K509" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L509" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M509" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N509" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="O509" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P509" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I510" s="3"/>
+      <c r="J510" s="3"/>
+      <c r="K510" s="3"/>
+      <c r="L510" s="3"/>
+      <c r="M510" s="3"/>
+      <c r="N510" s="3"/>
+      <c r="O510" s="3"/>
+      <c r="P510" s="3"/>
+    </row>
+    <row r="511" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I511" s="3"/>
+      <c r="J511" s="3"/>
+      <c r="K511" s="3"/>
+      <c r="L511" s="3"/>
+      <c r="M511" s="3"/>
+      <c r="N511" s="3"/>
+      <c r="O511" s="3"/>
+      <c r="P511" s="3"/>
+    </row>
+    <row r="512" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I512" s="3"/>
+      <c r="J512" s="3"/>
+      <c r="K512" s="3"/>
+      <c r="L512" s="3"/>
+      <c r="M512" s="3"/>
+      <c r="N512" s="3"/>
+      <c r="O512" s="3"/>
+      <c r="P512" s="3"/>
+    </row>
+    <row r="513" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I513" s="3"/>
+      <c r="J513" s="3"/>
+      <c r="K513" s="3"/>
+      <c r="L513" s="3"/>
+      <c r="M513" s="3"/>
+      <c r="N513" s="3"/>
+      <c r="O513" s="3"/>
+      <c r="P513" s="3"/>
+    </row>
+    <row r="514" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I514" s="3"/>
+      <c r="J514" s="3"/>
+      <c r="K514" s="3"/>
+      <c r="L514" s="3"/>
+      <c r="M514" s="3"/>
+      <c r="N514" s="3"/>
+      <c r="O514" s="3"/>
+      <c r="P514" s="3"/>
+    </row>
+    <row r="515" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I515" s="3"/>
+      <c r="J515" s="3"/>
+      <c r="K515" s="3"/>
+      <c r="L515" s="3"/>
+      <c r="M515" s="3"/>
+      <c r="N515" s="3"/>
+      <c r="O515" s="3"/>
+      <c r="P515" s="3"/>
+    </row>
+    <row r="516" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I516" s="3"/>
+      <c r="J516" s="3"/>
+      <c r="K516" s="3"/>
+      <c r="L516" s="3"/>
+      <c r="M516" s="3"/>
+      <c r="N516" s="3"/>
+      <c r="O516" s="3"/>
+      <c r="P516" s="3"/>
+    </row>
+    <row r="517" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I517" s="3"/>
+      <c r="J517" s="3"/>
+      <c r="K517" s="3"/>
+      <c r="L517" s="3"/>
+      <c r="M517" s="3"/>
+      <c r="N517" s="3"/>
+      <c r="O517" s="3"/>
+      <c r="P517" s="3"/>
+    </row>
+    <row r="518" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I518" s="3"/>
+      <c r="J518" s="3"/>
+      <c r="K518" s="3"/>
+      <c r="L518" s="3"/>
+      <c r="M518" s="3"/>
+      <c r="N518" s="3"/>
+      <c r="O518" s="3"/>
+      <c r="P518" s="3"/>
+    </row>
+    <row r="519" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I519" s="3"/>
+      <c r="J519" s="3"/>
+      <c r="K519" s="3"/>
+      <c r="L519" s="3"/>
+      <c r="M519" s="3"/>
+      <c r="N519" s="3"/>
+      <c r="O519" s="3"/>
+      <c r="P519" s="3"/>
+    </row>
+    <row r="520" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I520" s="3"/>
+      <c r="J520" s="3"/>
+      <c r="K520" s="3"/>
+      <c r="L520" s="3"/>
+      <c r="M520" s="3"/>
+      <c r="N520" s="3"/>
+      <c r="O520" s="3"/>
+      <c r="P520" s="3"/>
+    </row>
+    <row r="521" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I521" s="3"/>
+      <c r="J521" s="3"/>
+      <c r="K521" s="3"/>
+      <c r="L521" s="3"/>
+      <c r="M521" s="3"/>
+      <c r="N521" s="3"/>
+      <c r="O521" s="3"/>
+      <c r="P521" s="3"/>
+    </row>
+    <row r="522" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I522" s="3"/>
+      <c r="J522" s="3"/>
+      <c r="K522" s="3"/>
+      <c r="L522" s="3"/>
+      <c r="M522" s="3"/>
+      <c r="N522" s="3"/>
+      <c r="O522" s="3"/>
+      <c r="P522" s="3"/>
+    </row>
+    <row r="523" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I523" s="3"/>
+      <c r="J523" s="3"/>
+      <c r="K523" s="3"/>
+      <c r="L523" s="3"/>
+      <c r="M523" s="3"/>
+      <c r="N523" s="3"/>
+      <c r="O523" s="3"/>
+      <c r="P523" s="3"/>
+    </row>
+    <row r="524" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I524" s="3"/>
+      <c r="J524" s="3"/>
+      <c r="K524" s="3"/>
+      <c r="L524" s="3"/>
+      <c r="M524" s="3"/>
+      <c r="N524" s="3"/>
+      <c r="O524" s="3"/>
+      <c r="P524" s="3"/>
+    </row>
+    <row r="525" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I525" s="3"/>
+      <c r="J525" s="3"/>
+      <c r="K525" s="3"/>
+      <c r="L525" s="3"/>
+      <c r="M525" s="3"/>
+      <c r="N525" s="3"/>
+      <c r="O525" s="3"/>
+      <c r="P525" s="3"/>
+    </row>
+    <row r="526" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32033,10 +35813,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A246:A1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Other computers/iMac/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A0825-F9B6-EF4B-A0B7-C29C45AB0DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0912CEE-3F14-8047-9923-83DB619FBB17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="30240" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6tBdJCFxaTgjtse94ZjZvYTMgNg=="/>
     </ext>
@@ -5707,54 +5697,6 @@
     <t>GSE201425</t>
   </si>
   <si>
-    <t>BTT1</t>
-  </si>
-  <si>
-    <t>BTB1</t>
-  </si>
-  <si>
-    <t>BTM1</t>
-  </si>
-  <si>
-    <t>BTT2</t>
-  </si>
-  <si>
-    <t>BTN2</t>
-  </si>
-  <si>
-    <t>BTB2</t>
-  </si>
-  <si>
-    <t>BTT3</t>
-  </si>
-  <si>
-    <t>BTB3</t>
-  </si>
-  <si>
-    <t>BTM3</t>
-  </si>
-  <si>
-    <t>BTT4</t>
-  </si>
-  <si>
-    <t>BTM4</t>
-  </si>
-  <si>
-    <t>BTN4</t>
-  </si>
-  <si>
-    <t>BTB4</t>
-  </si>
-  <si>
-    <t>BTT5</t>
-  </si>
-  <si>
-    <t>BTN5</t>
-  </si>
-  <si>
-    <t>BTB5</t>
-  </si>
-  <si>
     <t>Gallbladder Carcinoma</t>
   </si>
   <si>
@@ -5825,6 +5767,54 @@
   </si>
   <si>
     <t>Patient238</t>
+  </si>
+  <si>
+    <t>BIT1</t>
+  </si>
+  <si>
+    <t>BIB1</t>
+  </si>
+  <si>
+    <t>BIM1</t>
+  </si>
+  <si>
+    <t>BIT2</t>
+  </si>
+  <si>
+    <t>BIN2</t>
+  </si>
+  <si>
+    <t>BIB2</t>
+  </si>
+  <si>
+    <t>BIT3</t>
+  </si>
+  <si>
+    <t>BIB3</t>
+  </si>
+  <si>
+    <t>BIM3</t>
+  </si>
+  <si>
+    <t>BIT4</t>
+  </si>
+  <si>
+    <t>BIM4</t>
+  </si>
+  <si>
+    <t>BIN4</t>
+  </si>
+  <si>
+    <t>BIB4</t>
+  </si>
+  <si>
+    <t>BIT5</t>
+  </si>
+  <si>
+    <t>BIN5</t>
+  </si>
+  <si>
+    <t>BIB5</t>
   </si>
 </sst>
 </file>
@@ -6124,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B566" workbookViewId="0">
-      <selection activeCell="K585" sqref="K585:K589"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="B579" sqref="B579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40108,7 +40098,7 @@
     </row>
     <row r="580" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>1890</v>
+        <v>1914</v>
       </c>
       <c r="B580" t="s">
         <v>1857</v>
@@ -40123,10 +40113,10 @@
         <v>12</v>
       </c>
       <c r="F580" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="H580" t="s">
         <v>14</v>
@@ -40156,7 +40146,7 @@
         <v>229</v>
       </c>
       <c r="Q580" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R580" s="3" t="s">
         <v>229</v>
@@ -40167,7 +40157,7 @@
     </row>
     <row r="581" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>1891</v>
+        <v>1915</v>
       </c>
       <c r="B581" t="s">
         <v>1859</v>
@@ -40182,10 +40172,10 @@
         <v>97</v>
       </c>
       <c r="F581" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="H581" t="s">
         <v>14</v>
@@ -40215,7 +40205,7 @@
         <v>229</v>
       </c>
       <c r="Q581" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R581" s="3" t="s">
         <v>229</v>
@@ -40226,7 +40216,7 @@
     </row>
     <row r="582" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>1892</v>
+        <v>1916</v>
       </c>
       <c r="B582" t="s">
         <v>1861</v>
@@ -40241,10 +40231,10 @@
         <v>1634</v>
       </c>
       <c r="F582" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="H582" t="s">
         <v>14</v>
@@ -40274,7 +40264,7 @@
         <v>229</v>
       </c>
       <c r="Q582" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R582" s="3" t="s">
         <v>229</v>
@@ -40285,7 +40275,7 @@
     </row>
     <row r="583" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>1893</v>
+        <v>1917</v>
       </c>
       <c r="B583" t="s">
         <v>1863</v>
@@ -40300,10 +40290,10 @@
         <v>12</v>
       </c>
       <c r="F583" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
       <c r="H583" t="s">
         <v>14</v>
@@ -40333,7 +40323,7 @@
         <v>229</v>
       </c>
       <c r="Q583" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="R583" s="3" t="s">
         <v>229</v>
@@ -40344,7 +40334,7 @@
     </row>
     <row r="584" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>1894</v>
+        <v>1918</v>
       </c>
       <c r="B584" t="s">
         <v>1865</v>
@@ -40359,10 +40349,10 @@
         <v>221</v>
       </c>
       <c r="F584" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
       <c r="H584" t="s">
         <v>14</v>
@@ -40392,7 +40382,7 @@
         <v>229</v>
       </c>
       <c r="Q584" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="R584" s="3" t="s">
         <v>229</v>
@@ -40403,7 +40393,7 @@
     </row>
     <row r="585" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>1895</v>
+        <v>1919</v>
       </c>
       <c r="B585" t="s">
         <v>1867</v>
@@ -40418,10 +40408,10 @@
         <v>97</v>
       </c>
       <c r="F585" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
       <c r="H585" t="s">
         <v>14</v>
@@ -40451,7 +40441,7 @@
         <v>229</v>
       </c>
       <c r="Q585" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="R585" s="3" t="s">
         <v>229</v>
@@ -40462,7 +40452,7 @@
     </row>
     <row r="586" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>1896</v>
+        <v>1920</v>
       </c>
       <c r="B586" t="s">
         <v>1869</v>
@@ -40477,10 +40467,10 @@
         <v>12</v>
       </c>
       <c r="F586" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="H586" t="s">
         <v>14</v>
@@ -40510,7 +40500,7 @@
         <v>229</v>
       </c>
       <c r="Q586" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R586" s="3" t="s">
         <v>229</v>
@@ -40521,7 +40511,7 @@
     </row>
     <row r="587" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>1897</v>
+        <v>1921</v>
       </c>
       <c r="B587" t="s">
         <v>1871</v>
@@ -40536,10 +40526,10 @@
         <v>97</v>
       </c>
       <c r="F587" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="H587" t="s">
         <v>14</v>
@@ -40569,7 +40559,7 @@
         <v>229</v>
       </c>
       <c r="Q587" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R587" s="3" t="s">
         <v>229</v>
@@ -40580,7 +40570,7 @@
     </row>
     <row r="588" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>1898</v>
+        <v>1922</v>
       </c>
       <c r="B588" t="s">
         <v>1873</v>
@@ -40595,10 +40585,10 @@
         <v>1634</v>
       </c>
       <c r="F588" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="H588" t="s">
         <v>14</v>
@@ -40628,7 +40618,7 @@
         <v>229</v>
       </c>
       <c r="Q588" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="R588" s="3" t="s">
         <v>229</v>
@@ -40639,7 +40629,7 @@
     </row>
     <row r="589" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>1899</v>
+        <v>1923</v>
       </c>
       <c r="B589" t="s">
         <v>1875</v>
@@ -40654,10 +40644,10 @@
         <v>12</v>
       </c>
       <c r="F589" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="H589" t="s">
         <v>14</v>
@@ -40687,7 +40677,7 @@
         <v>229</v>
       </c>
       <c r="Q589" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R589" s="3" t="s">
         <v>229</v>
@@ -40698,7 +40688,7 @@
     </row>
     <row r="590" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
-        <v>1900</v>
+        <v>1924</v>
       </c>
       <c r="B590" t="s">
         <v>1877</v>
@@ -40713,10 +40703,10 @@
         <v>1634</v>
       </c>
       <c r="F590" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="H590" t="s">
         <v>14</v>
@@ -40746,7 +40736,7 @@
         <v>229</v>
       </c>
       <c r="Q590" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R590" s="3" t="s">
         <v>229</v>
@@ -40757,7 +40747,7 @@
     </row>
     <row r="591" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
-        <v>1901</v>
+        <v>1925</v>
       </c>
       <c r="B591" t="s">
         <v>1879</v>
@@ -40772,10 +40762,10 @@
         <v>221</v>
       </c>
       <c r="F591" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="H591" t="s">
         <v>14</v>
@@ -40805,7 +40795,7 @@
         <v>229</v>
       </c>
       <c r="Q591" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R591" s="3" t="s">
         <v>229</v>
@@ -40816,7 +40806,7 @@
     </row>
     <row r="592" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="B592" t="s">
         <v>1881</v>
@@ -40831,10 +40821,10 @@
         <v>97</v>
       </c>
       <c r="F592" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="H592" t="s">
         <v>14</v>
@@ -40864,7 +40854,7 @@
         <v>229</v>
       </c>
       <c r="Q592" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R592" s="3" t="s">
         <v>229</v>
@@ -40875,7 +40865,7 @@
     </row>
     <row r="593" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
-        <v>1903</v>
+        <v>1927</v>
       </c>
       <c r="B593" t="s">
         <v>1883</v>
@@ -40890,16 +40880,16 @@
         <v>12</v>
       </c>
       <c r="F593" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="H593" t="s">
         <v>14</v>
       </c>
       <c r="I593" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="J593" t="s">
         <v>1423</v>
@@ -40923,7 +40913,7 @@
         <v>229</v>
       </c>
       <c r="Q593" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R593" s="3" t="s">
         <v>229</v>
@@ -40934,7 +40924,7 @@
     </row>
     <row r="594" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>1904</v>
+        <v>1928</v>
       </c>
       <c r="B594" t="s">
         <v>1885</v>
@@ -40949,16 +40939,16 @@
         <v>221</v>
       </c>
       <c r="F594" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="H594" t="s">
         <v>14</v>
       </c>
       <c r="I594" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="J594" t="s">
         <v>1423</v>
@@ -40982,7 +40972,7 @@
         <v>229</v>
       </c>
       <c r="Q594" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R594" s="3" t="s">
         <v>229</v>
@@ -40993,7 +40983,7 @@
     </row>
     <row r="595" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="B595" t="s">
         <v>1887</v>
@@ -41008,16 +40998,16 @@
         <v>97</v>
       </c>
       <c r="F595" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="H595" t="s">
         <v>14</v>
       </c>
       <c r="I595" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="J595" t="s">
         <v>1423</v>
@@ -41041,7 +41031,7 @@
         <v>229</v>
       </c>
       <c r="Q595" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="R595" s="3" t="s">
         <v>229</v>
@@ -41052,16 +41042,16 @@
     </row>
     <row r="596" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="B596" t="s">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="C596" t="s">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="D596" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="E596" t="s">
         <v>12</v>
@@ -41070,7 +41060,7 @@
         <v>231</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="H596" t="s">
         <v>229</v>
@@ -41111,16 +41101,16 @@
     </row>
     <row r="597" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="B597" t="s">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="C597" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="D597" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="E597" t="s">
         <v>1634</v>
@@ -41129,7 +41119,7 @@
         <v>231</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="H597" t="s">
         <v>229</v>
@@ -41170,16 +41160,16 @@
     </row>
     <row r="598" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="B598" t="s">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="C598" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="D598" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="E598" t="s">
         <v>97</v>
@@ -41188,7 +41178,7 @@
         <v>231</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="H598" t="s">
         <v>229</v>
@@ -41229,16 +41219,16 @@
     </row>
     <row r="599" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="B599" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="C599" t="s">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="D599" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="E599" t="s">
         <v>97</v>
@@ -41247,7 +41237,7 @@
         <v>231</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="H599" t="s">
         <v>229</v>

--- a/summaryInfo/sample.directory.xlsx
+++ b/summaryInfo/sample.directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/GitHub/utility/summaryInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17308A9A-9FF5-2048-A032-DF865B4FF76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD2524-31CE-A443-A978-A3A0B662870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5609,24 +5609,6 @@
     <t>C.B.12</t>
   </si>
   <si>
-    <t>C.T.13</t>
-  </si>
-  <si>
-    <t>C.N.13.1</t>
-  </si>
-  <si>
-    <t>C.L.13</t>
-  </si>
-  <si>
-    <t>C.M.13</t>
-  </si>
-  <si>
-    <t>C.N.13.2</t>
-  </si>
-  <si>
-    <t>C.B.13</t>
-  </si>
-  <si>
     <t>O.T.7.1</t>
   </si>
   <si>
@@ -7275,6 +7257,24 @@
   </si>
   <si>
     <t>GSM6628122</t>
+  </si>
+  <si>
+    <t>C.T.3</t>
+  </si>
+  <si>
+    <t>C.N.3.1</t>
+  </si>
+  <si>
+    <t>C.M.3</t>
+  </si>
+  <si>
+    <t>C.N.3.2</t>
+  </si>
+  <si>
+    <t>C.B.3</t>
+  </si>
+  <si>
+    <t>C.L.4</t>
   </si>
 </sst>
 </file>
@@ -7641,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="E328" sqref="E328"/>
+    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -34042,7 +34042,7 @@
     </row>
     <row r="450" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>1804</v>
+        <v>2407</v>
       </c>
       <c r="B450" t="s">
         <v>1095</v>
@@ -34101,7 +34101,7 @@
     </row>
     <row r="451" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>1805</v>
+        <v>2408</v>
       </c>
       <c r="B451" t="s">
         <v>1096</v>
@@ -34160,7 +34160,7 @@
     </row>
     <row r="452" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>1806</v>
+        <v>2409</v>
       </c>
       <c r="B452" t="s">
         <v>1097</v>
@@ -34219,7 +34219,7 @@
     </row>
     <row r="453" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>1807</v>
+        <v>2410</v>
       </c>
       <c r="B453" t="s">
         <v>1098</v>
@@ -34278,7 +34278,7 @@
     </row>
     <row r="454" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>1808</v>
+        <v>2411</v>
       </c>
       <c r="B454" t="s">
         <v>1099</v>
@@ -34337,7 +34337,7 @@
     </row>
     <row r="455" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="B455" t="s">
         <v>1100</v>
@@ -34396,7 +34396,7 @@
     </row>
     <row r="456" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="B456" t="s">
         <v>1101</v>
@@ -34455,7 +34455,7 @@
     </row>
     <row r="457" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>1811</v>
+        <v>2412</v>
       </c>
       <c r="B457" t="s">
         <v>1102</v>
@@ -34514,7 +34514,7 @@
     </row>
     <row r="458" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="B458" t="s">
         <v>1103</v>
@@ -34573,7 +34573,7 @@
     </row>
     <row r="459" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="B459" t="s">
         <v>1104</v>
@@ -34632,7 +34632,7 @@
     </row>
     <row r="460" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B460" t="s">
         <v>1105</v>
@@ -34691,7 +34691,7 @@
     </row>
     <row r="461" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="B461" t="s">
         <v>1106</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="462" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="B462" t="s">
         <v>1107</v>
@@ -34809,7 +34809,7 @@
     </row>
     <row r="463" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="B463" t="s">
         <v>1108</v>
@@ -34868,7 +34868,7 @@
     </row>
     <row r="464" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="B464" t="s">
         <v>1109</v>
@@ -34927,7 +34927,7 @@
     </row>
     <row r="465" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="B465" t="s">
         <v>1110</v>
@@ -34986,7 +34986,7 @@
     </row>
     <row r="466" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="B466" t="s">
         <v>1111</v>
@@ -35045,7 +35045,7 @@
     </row>
     <row r="467" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="B467" t="s">
         <v>1112</v>
@@ -35104,7 +35104,7 @@
     </row>
     <row r="468" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="B468" t="s">
         <v>1113</v>
@@ -35163,7 +35163,7 @@
     </row>
     <row r="469" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B469" t="s">
         <v>1114</v>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="470" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="B470" t="s">
         <v>1115</v>
@@ -35281,7 +35281,7 @@
     </row>
     <row r="471" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="B471" t="s">
         <v>1116</v>
@@ -35340,7 +35340,7 @@
     </row>
     <row r="472" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="B472" t="s">
         <v>1117</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="473" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>1118</v>
@@ -35458,7 +35458,7 @@
     </row>
     <row r="474" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>1119</v>
@@ -35517,7 +35517,7 @@
     </row>
     <row r="475" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>1120</v>
@@ -35576,7 +35576,7 @@
     </row>
     <row r="476" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>1121</v>
@@ -35635,7 +35635,7 @@
     </row>
     <row r="477" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>1122</v>
@@ -35694,7 +35694,7 @@
     </row>
     <row r="478" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>1123</v>
@@ -35753,7 +35753,7 @@
     </row>
     <row r="479" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>1124</v>
@@ -35812,7 +35812,7 @@
     </row>
     <row r="480" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>1125</v>
@@ -35871,7 +35871,7 @@
     </row>
     <row r="481" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>1126</v>
@@ -35930,7 +35930,7 @@
     </row>
     <row r="482" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>1127</v>
@@ -35989,7 +35989,7 @@
     </row>
     <row r="483" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>1128</v>
@@ -36048,7 +36048,7 @@
     </row>
     <row r="484" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>1129</v>
@@ -36107,7 +36107,7 @@
     </row>
     <row r="485" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>1130</v>
@@ -36166,7 +36166,7 @@
     </row>
     <row r="486" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>1131</v>
@@ -36225,7 +36225,7 @@
     </row>
     <row r="487" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>1132</v>
@@ -36284,7 +36284,7 @@
     </row>
     <row r="488" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>1133</v>
@@ -36343,7 +36343,7 @@
     </row>
     <row r="489" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>1134</v>
@@ -36402,7 +36402,7 @@
     </row>
     <row r="490" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>1135</v>
@@ -36461,7 +36461,7 @@
     </row>
     <row r="491" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>1136</v>
@@ -36520,7 +36520,7 @@
     </row>
     <row r="492" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>1137</v>
@@ -36579,7 +36579,7 @@
     </row>
     <row r="493" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>1138</v>
@@ -36638,7 +36638,7 @@
     </row>
     <row r="494" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>1139</v>
@@ -36697,7 +36697,7 @@
     </row>
     <row r="495" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>1140</v>
@@ -36756,7 +36756,7 @@
     </row>
     <row r="496" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>1141</v>
@@ -36815,7 +36815,7 @@
     </row>
     <row r="497" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>1142</v>
@@ -36874,7 +36874,7 @@
     </row>
     <row r="498" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>1143</v>
@@ -36933,7 +36933,7 @@
     </row>
     <row r="499" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>1144</v>
@@ -36992,7 +36992,7 @@
     </row>
     <row r="500" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>1145</v>
@@ -37051,7 +37051,7 @@
     </row>
     <row r="501" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>1146</v>
@@ -37110,7 +37110,7 @@
     </row>
     <row r="502" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>1147</v>
@@ -37169,7 +37169,7 @@
     </row>
     <row r="503" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>1148</v>
@@ -37228,7 +37228,7 @@
     </row>
     <row r="504" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>1149</v>
@@ -37287,7 +37287,7 @@
     </row>
     <row r="505" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>1150</v>
@@ -37346,7 +37346,7 @@
     </row>
     <row r="506" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>1151</v>
@@ -37405,7 +37405,7 @@
     </row>
     <row r="507" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>1152</v>
@@ -37464,7 +37464,7 @@
     </row>
     <row r="508" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>1153</v>
@@ -37523,7 +37523,7 @@
     </row>
     <row r="509" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B509" t="s">
         <v>1175</v>
@@ -37582,7 +37582,7 @@
     </row>
     <row r="510" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="B510" t="s">
         <v>1177</v>
@@ -37641,7 +37641,7 @@
     </row>
     <row r="511" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="B511" t="s">
         <v>1179</v>
@@ -37700,7 +37700,7 @@
     </row>
     <row r="512" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="B512" t="s">
         <v>1181</v>
@@ -37759,7 +37759,7 @@
     </row>
     <row r="513" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="B513" t="s">
         <v>1183</v>
@@ -37818,7 +37818,7 @@
     </row>
     <row r="514" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="B514" t="s">
         <v>1185</v>
@@ -37877,7 +37877,7 @@
     </row>
     <row r="515" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="B515" t="s">
         <v>1187</v>
@@ -37936,7 +37936,7 @@
     </row>
     <row r="516" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="B516" t="s">
         <v>1189</v>
@@ -37995,7 +37995,7 @@
     </row>
     <row r="517" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="B517" t="s">
         <v>1191</v>
@@ -38054,7 +38054,7 @@
     </row>
     <row r="518" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="B518" t="s">
         <v>1193</v>
@@ -38113,7 +38113,7 @@
     </row>
     <row r="519" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="B519" t="s">
         <v>1195</v>
@@ -38172,7 +38172,7 @@
     </row>
     <row r="520" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="B520" t="s">
         <v>1197</v>
@@ -38231,7 +38231,7 @@
     </row>
     <row r="521" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="B521" t="s">
         <v>1199</v>
@@ -38290,7 +38290,7 @@
     </row>
     <row r="522" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="B522" t="s">
         <v>1201</v>
@@ -38349,7 +38349,7 @@
     </row>
     <row r="523" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="B523" t="s">
         <v>1203</v>
@@ -38408,7 +38408,7 @@
     </row>
     <row r="524" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="B524" t="s">
         <v>1205</v>
@@ -38467,7 +38467,7 @@
     </row>
     <row r="525" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="B525" t="s">
         <v>1212</v>
@@ -38526,7 +38526,7 @@
     </row>
     <row r="526" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="B526" t="s">
         <v>1213</v>
@@ -38585,7 +38585,7 @@
     </row>
     <row r="527" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="B527" t="s">
         <v>1214</v>
@@ -38644,7 +38644,7 @@
     </row>
     <row r="528" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="B528" t="s">
         <v>1215</v>
@@ -38703,7 +38703,7 @@
     </row>
     <row r="529" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="B529" t="s">
         <v>1216</v>
@@ -38762,7 +38762,7 @@
     </row>
     <row r="530" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="B530" t="s">
         <v>1217</v>
@@ -38821,7 +38821,7 @@
     </row>
     <row r="531" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="B531" t="s">
         <v>1218</v>
@@ -38880,7 +38880,7 @@
     </row>
     <row r="532" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="B532" t="s">
         <v>1219</v>
@@ -38939,7 +38939,7 @@
     </row>
     <row r="533" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="B533" t="s">
         <v>1220</v>
@@ -38998,7 +38998,7 @@
     </row>
     <row r="534" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="B534" t="s">
         <v>1221</v>
@@ -39057,7 +39057,7 @@
     </row>
     <row r="535" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="B535" t="s">
         <v>1222</v>
@@ -39116,7 +39116,7 @@
     </row>
     <row r="536" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="B536" t="s">
         <v>1223</v>
@@ -39175,7 +39175,7 @@
     </row>
     <row r="537" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="B537" t="s">
         <v>1224</v>
@@ -39234,7 +39234,7 @@
     </row>
     <row r="538" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="B538" t="s">
         <v>1225</v>
@@ -39293,7 +39293,7 @@
     </row>
     <row r="539" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="B539" t="s">
         <v>1226</v>
@@ -39352,7 +39352,7 @@
     </row>
     <row r="540" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="B540" t="s">
         <v>1227</v>
@@ -39411,7 +39411,7 @@
     </row>
     <row r="541" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="B541" t="s">
         <v>1228</v>
@@ -39470,7 +39470,7 @@
     </row>
     <row r="542" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="B542" t="s">
         <v>1229</v>
@@ -39529,7 +39529,7 @@
     </row>
     <row r="543" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="B543" t="s">
         <v>1230</v>
@@ -39588,7 +39588,7 @@
     </row>
     <row r="544" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="B544" t="s">
         <v>1231</v>
@@ -39647,7 +39647,7 @@
     </row>
     <row r="545" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="B545" t="s">
         <v>1232</v>
@@ -39706,7 +39706,7 @@
     </row>
     <row r="546" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="B546" t="s">
         <v>1233</v>
@@ -39765,7 +39765,7 @@
     </row>
     <row r="547" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="B547" t="s">
         <v>1234</v>
@@ -39824,7 +39824,7 @@
     </row>
     <row r="548" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="B548" t="s">
         <v>1235</v>
@@ -39883,7 +39883,7 @@
     </row>
     <row r="549" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="B549" t="s">
         <v>1236</v>
@@ -39942,7 +39942,7 @@
     </row>
     <row r="550" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="B550" t="s">
         <v>1282</v>
@@ -40001,7 +40001,7 @@
     </row>
     <row r="551" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="B551" t="s">
         <v>1282</v>
@@ -40060,7 +40060,7 @@
     </row>
     <row r="552" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="B552" t="s">
         <v>1284</v>
@@ -40119,7 +40119,7 @@
     </row>
     <row r="553" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="B553" t="s">
         <v>1286</v>
@@ -40178,7 +40178,7 @@
     </row>
     <row r="554" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="B554" t="s">
         <v>1286</v>
@@ -40237,7 +40237,7 @@
     </row>
     <row r="555" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="B555" t="s">
         <v>1286</v>
@@ -40296,7 +40296,7 @@
     </row>
     <row r="556" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="B556" t="s">
         <v>1288</v>
@@ -40355,7 +40355,7 @@
     </row>
     <row r="557" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="B557" t="s">
         <v>1288</v>
@@ -40414,7 +40414,7 @@
     </row>
     <row r="558" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="B558" t="s">
         <v>1290</v>
@@ -40473,7 +40473,7 @@
     </row>
     <row r="559" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="B559" t="s">
         <v>1290</v>
@@ -40532,7 +40532,7 @@
     </row>
     <row r="560" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="B560" t="s">
         <v>1292</v>
@@ -40591,7 +40591,7 @@
     </row>
     <row r="561" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="B561" t="s">
         <v>1292</v>
@@ -40650,7 +40650,7 @@
     </row>
     <row r="562" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="B562" t="s">
         <v>1292</v>
@@ -40709,7 +40709,7 @@
     </row>
     <row r="563" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="B563" t="s">
         <v>1294</v>
@@ -40768,7 +40768,7 @@
     </row>
     <row r="564" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="B564" t="s">
         <v>1294</v>
@@ -40827,7 +40827,7 @@
     </row>
     <row r="565" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="B565" t="s">
         <v>1296</v>
@@ -40886,7 +40886,7 @@
     </row>
     <row r="566" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="B566" t="s">
         <v>1296</v>
@@ -40945,7 +40945,7 @@
     </row>
     <row r="567" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B567" t="s">
         <v>1298</v>
@@ -41004,7 +41004,7 @@
     </row>
     <row r="568" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="B568" t="s">
         <v>1298</v>
@@ -41063,7 +41063,7 @@
     </row>
     <row r="569" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="B569" t="s">
         <v>1298</v>
@@ -41122,7 +41122,7 @@
     </row>
     <row r="570" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="B570" t="s">
         <v>1300</v>
@@ -41181,7 +41181,7 @@
     </row>
     <row r="571" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="B571" t="s">
         <v>1300</v>
@@ -41240,7 +41240,7 @@
     </row>
     <row r="572" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="B572" t="s">
         <v>1300</v>
@@ -41299,7 +41299,7 @@
     </row>
     <row r="573" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B573" t="s">
         <v>1302</v>
@@ -41358,7 +41358,7 @@
     </row>
     <row r="574" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="B574" t="s">
         <v>1302</v>
@@ -41417,7 +41417,7 @@
     </row>
     <row r="575" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="B575" t="s">
         <v>1302</v>
@@ -41476,7 +41476,7 @@
     </row>
     <row r="576" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="B576" t="s">
         <v>1304</v>
@@ -41535,7 +41535,7 @@
     </row>
     <row r="577" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="B577" t="s">
         <v>1304</v>
@@ -41594,7 +41594,7 @@
     </row>
     <row r="578" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="B578" t="s">
         <v>1304</v>
@@ -41653,7 +41653,7 @@
     </row>
     <row r="579" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="B579" t="s">
         <v>1308</v>
@@ -41712,7 +41712,7 @@
     </row>
     <row r="580" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="B580" t="s">
         <v>1310</v>
@@ -41771,7 +41771,7 @@
     </row>
     <row r="581" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="B581" t="s">
         <v>1312</v>
@@ -41830,7 +41830,7 @@
     </row>
     <row r="582" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="B582" t="s">
         <v>1314</v>
@@ -41889,7 +41889,7 @@
     </row>
     <row r="583" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="B583" t="s">
         <v>1316</v>
@@ -41948,7 +41948,7 @@
     </row>
     <row r="584" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B584" t="s">
         <v>1318</v>
@@ -42007,7 +42007,7 @@
     </row>
     <row r="585" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="B585" t="s">
         <v>1320</v>
@@ -42066,7 +42066,7 @@
     </row>
     <row r="586" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="B586" t="s">
         <v>1322</v>
@@ -42125,7 +42125,7 @@
     </row>
     <row r="587" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="B587" t="s">
         <v>1324</v>
@@ -42184,7 +42184,7 @@
     </row>
     <row r="588" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="B588" t="s">
         <v>1326</v>
@@ -42243,7 +42243,7 @@
     </row>
     <row r="589" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="B589" t="s">
         <v>1328</v>
@@ -42833,16 +42833,16 @@
     </row>
     <row r="599" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="B599" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C599" t="s">
         <v>1946</v>
       </c>
-      <c r="C599" t="s">
+      <c r="D599" s="2" t="s">
         <v>1952</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>1958</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>83</v>
@@ -42851,10 +42851,10 @@
         <v>188</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="H599" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I599" s="2" t="s">
         <v>1059</v>
@@ -42892,16 +42892,16 @@
     </row>
     <row r="600" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="B600" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C600" t="s">
         <v>1947</v>
       </c>
-      <c r="C600" t="s">
-        <v>1953</v>
-      </c>
       <c r="D600" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>83</v>
@@ -42910,10 +42910,10 @@
         <v>188</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="H600" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I600" s="2" t="s">
         <v>1059</v>
@@ -42951,16 +42951,16 @@
     </row>
     <row r="601" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="B601" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C601" t="s">
         <v>1948</v>
       </c>
-      <c r="C601" t="s">
-        <v>1954</v>
-      </c>
       <c r="D601" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>83</v>
@@ -42969,10 +42969,10 @@
         <v>188</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="H601" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I601" s="2" t="s">
         <v>1059</v>
@@ -43010,16 +43010,16 @@
     </row>
     <row r="602" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="B602" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C602" t="s">
         <v>1949</v>
       </c>
-      <c r="C602" t="s">
-        <v>1955</v>
-      </c>
       <c r="D602" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>83</v>
@@ -43028,10 +43028,10 @@
         <v>188</v>
       </c>
       <c r="G602" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="H602" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I602" s="2" t="s">
         <v>1057</v>
@@ -43069,16 +43069,16 @@
     </row>
     <row r="603" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="B603" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C603" t="s">
         <v>1950</v>
       </c>
-      <c r="C603" t="s">
-        <v>1956</v>
-      </c>
       <c r="D603" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>83</v>
@@ -43087,10 +43087,10 @@
         <v>188</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="H603" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I603" s="2" t="s">
         <v>1057</v>
@@ -43128,16 +43128,16 @@
     </row>
     <row r="604" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="B604" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C604" t="s">
         <v>1951</v>
       </c>
-      <c r="C604" t="s">
-        <v>1957</v>
-      </c>
       <c r="D604" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>83</v>
@@ -43146,10 +43146,10 @@
         <v>188</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="H604" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="I604" s="2" t="s">
         <v>1057</v>
@@ -43187,16 +43187,16 @@
     </row>
     <row r="605" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="C605" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="D605" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>11</v>
@@ -43205,7 +43205,7 @@
         <v>188</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="H605" s="2" t="s">
         <v>48</v>
@@ -43246,16 +43246,16 @@
     </row>
     <row r="606" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="C606" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="D606" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>83</v>
@@ -43264,7 +43264,7 @@
         <v>188</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="H606" s="2" t="s">
         <v>48</v>
@@ -43305,16 +43305,16 @@
     </row>
     <row r="607" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="C607" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="D607" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>11</v>
@@ -43323,7 +43323,7 @@
         <v>188</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="H607" s="2" t="s">
         <v>48</v>
@@ -43364,16 +43364,16 @@
     </row>
     <row r="608" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="C608" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D608" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>83</v>
@@ -43382,7 +43382,7 @@
         <v>188</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="H608" s="2" t="s">
         <v>48</v>
@@ -43423,16 +43423,16 @@
     </row>
     <row r="609" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="C609" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D609" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>11</v>
@@ -43441,7 +43441,7 @@
         <v>188</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>48</v>
@@ -43482,16 +43482,16 @@
     </row>
     <row r="610" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="C610" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="D610" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>11</v>
@@ -43500,7 +43500,7 @@
         <v>188</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="H610" s="2" t="s">
         <v>48</v>
@@ -43541,16 +43541,16 @@
     </row>
     <row r="611" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="B611" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D611" t="s">
         <v>1981</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D611" t="s">
-        <v>1987</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>11</v>
@@ -43559,7 +43559,7 @@
         <v>188</v>
       </c>
       <c r="G611" s="2" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>48</v>
@@ -43600,16 +43600,16 @@
     </row>
     <row r="612" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="C612" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="D612" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>11</v>
@@ -43618,7 +43618,7 @@
         <v>52</v>
       </c>
       <c r="G612" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H612" s="2" t="s">
         <v>48</v>
@@ -43659,16 +43659,16 @@
     </row>
     <row r="613" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C613" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D613" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>11</v>
@@ -43677,7 +43677,7 @@
         <v>52</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>48</v>
@@ -43718,16 +43718,16 @@
     </row>
     <row r="614" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="C614" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="D614" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>11</v>
@@ -43736,7 +43736,7 @@
         <v>52</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H614" s="2" t="s">
         <v>48</v>
@@ -43777,16 +43777,16 @@
     </row>
     <row r="615" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="C615" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D615" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>187</v>
@@ -43795,7 +43795,7 @@
         <v>52</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>48</v>
@@ -43836,16 +43836,16 @@
     </row>
     <row r="616" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="C616" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D616" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>34</v>
@@ -43854,7 +43854,7 @@
         <v>52</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>48</v>
@@ -43895,16 +43895,16 @@
     </row>
     <row r="617" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C617" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="D617" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>11</v>
@@ -43913,7 +43913,7 @@
         <v>52</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>48</v>
@@ -43954,16 +43954,16 @@
     </row>
     <row r="618" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C618" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D618" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>11</v>
@@ -43972,7 +43972,7 @@
         <v>52</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>48</v>
@@ -44013,16 +44013,16 @@
     </row>
     <row r="619" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C619" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D619" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>11</v>
@@ -44031,7 +44031,7 @@
         <v>52</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>48</v>
@@ -44072,16 +44072,16 @@
     </row>
     <row r="620" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C620" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D620" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>11</v>
@@ -44090,7 +44090,7 @@
         <v>52</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>48</v>
@@ -44131,16 +44131,16 @@
     </row>
     <row r="621" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C621" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D621" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>11</v>
@@ -44149,7 +44149,7 @@
         <v>52</v>
       </c>
       <c r="G621" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>48</v>
@@ -44190,16 +44190,16 @@
     </row>
     <row r="622" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C622" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D622" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>11</v>
@@ -44208,7 +44208,7 @@
         <v>52</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>48</v>
@@ -44249,16 +44249,16 @@
     </row>
     <row r="623" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C623" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D623" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>11</v>
@@ -44267,7 +44267,7 @@
         <v>52</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H623" s="2" t="s">
         <v>48</v>
@@ -44308,16 +44308,16 @@
     </row>
     <row r="624" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C624" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D624" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>11</v>
@@ -44326,7 +44326,7 @@
         <v>52</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="H624" s="2" t="s">
         <v>48</v>
@@ -44367,16 +44367,16 @@
     </row>
     <row r="625" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C625" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D625" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>187</v>
@@ -44385,7 +44385,7 @@
         <v>52</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H625" s="2" t="s">
         <v>48</v>
@@ -44426,16 +44426,16 @@
     </row>
     <row r="626" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C626" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D626" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>34</v>
@@ -44444,7 +44444,7 @@
         <v>52</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H626" s="2" t="s">
         <v>48</v>
@@ -44485,16 +44485,16 @@
     </row>
     <row r="627" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="C627" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D627" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>11</v>
@@ -44503,7 +44503,7 @@
         <v>52</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H627" s="2" t="s">
         <v>48</v>
@@ -44544,16 +44544,16 @@
     </row>
     <row r="628" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="C628" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="D628" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>11</v>
@@ -44562,7 +44562,7 @@
         <v>52</v>
       </c>
       <c r="G628" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H628" s="2" t="s">
         <v>48</v>
@@ -44603,16 +44603,16 @@
     </row>
     <row r="629" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="C629" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="D629" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>11</v>
@@ -44621,7 +44621,7 @@
         <v>52</v>
       </c>
       <c r="G629" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H629" s="2" t="s">
         <v>48</v>
@@ -44662,16 +44662,16 @@
     </row>
     <row r="630" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="C630" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D630" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>11</v>
@@ -44680,7 +44680,7 @@
         <v>52</v>
       </c>
       <c r="G630" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H630" s="2" t="s">
         <v>48</v>
@@ -44721,16 +44721,16 @@
     </row>
     <row r="631" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="C631" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="D631" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>11</v>
@@ -44739,7 +44739,7 @@
         <v>52</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H631" s="2" t="s">
         <v>48</v>
@@ -44780,16 +44780,16 @@
     </row>
     <row r="632" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="C632" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="D632" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>11</v>
@@ -44798,7 +44798,7 @@
         <v>52</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H632" s="2" t="s">
         <v>48</v>
@@ -44839,16 +44839,16 @@
     </row>
     <row r="633" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="C633" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="D633" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>11</v>
@@ -44857,7 +44857,7 @@
         <v>52</v>
       </c>
       <c r="G633" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H633" s="2" t="s">
         <v>48</v>
@@ -44898,16 +44898,16 @@
     </row>
     <row r="634" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="C634" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="D634" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>11</v>
@@ -44916,7 +44916,7 @@
         <v>52</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="H634" s="2" t="s">
         <v>48</v>
@@ -44957,16 +44957,16 @@
     </row>
     <row r="635" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="C635" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="D635" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>34</v>
@@ -44975,7 +44975,7 @@
         <v>52</v>
       </c>
       <c r="G635" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H635" s="2" t="s">
         <v>48</v>
@@ -45016,16 +45016,16 @@
     </row>
     <row r="636" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="C636" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="D636" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>11</v>
@@ -45034,7 +45034,7 @@
         <v>52</v>
       </c>
       <c r="G636" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H636" s="2" t="s">
         <v>48</v>
@@ -45075,16 +45075,16 @@
     </row>
     <row r="637" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="C637" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="D637" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>11</v>
@@ -45093,7 +45093,7 @@
         <v>52</v>
       </c>
       <c r="G637" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H637" s="2" t="s">
         <v>48</v>
@@ -45134,16 +45134,16 @@
     </row>
     <row r="638" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C638" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D638" t="s">
         <v>2083</v>
-      </c>
-      <c r="B638" s="2" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C638" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D638" t="s">
-        <v>2089</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>11</v>
@@ -45152,7 +45152,7 @@
         <v>52</v>
       </c>
       <c r="G638" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H638" s="2" t="s">
         <v>48</v>
@@ -45193,16 +45193,16 @@
     </row>
     <row r="639" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="C639" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="D639" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>11</v>
@@ -45211,7 +45211,7 @@
         <v>52</v>
       </c>
       <c r="G639" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H639" s="2" t="s">
         <v>48</v>
@@ -45252,16 +45252,16 @@
     </row>
     <row r="640" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="C640" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="D640" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>11</v>
@@ -45270,7 +45270,7 @@
         <v>52</v>
       </c>
       <c r="G640" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H640" s="2" t="s">
         <v>48</v>
@@ -45311,16 +45311,16 @@
     </row>
     <row r="641" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="C641" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="D641" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>11</v>
@@ -45329,7 +45329,7 @@
         <v>52</v>
       </c>
       <c r="G641" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H641" s="2" t="s">
         <v>48</v>
@@ -45370,16 +45370,16 @@
     </row>
     <row r="642" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="C642" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="D642" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>11</v>
@@ -45388,7 +45388,7 @@
         <v>52</v>
       </c>
       <c r="G642" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H642" s="2" t="s">
         <v>48</v>
@@ -45429,16 +45429,16 @@
     </row>
     <row r="643" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="C643" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="D643" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>11</v>
@@ -45447,7 +45447,7 @@
         <v>52</v>
       </c>
       <c r="G643" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="H643" s="2" t="s">
         <v>48</v>
@@ -45488,25 +45488,25 @@
     </row>
     <row r="644" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="C644" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="D644" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G644" s="2" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="H644" s="2" t="s">
         <v>193</v>
@@ -45547,25 +45547,25 @@
     </row>
     <row r="645" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D645" t="s">
         <v>2108</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C645" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D645" t="s">
-        <v>2114</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G645" s="2" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="H645" s="2" t="s">
         <v>193</v>
@@ -45606,25 +45606,25 @@
     </row>
     <row r="646" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="C646" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="D646" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G646" s="2" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="H646" s="2" t="s">
         <v>193</v>
@@ -45665,25 +45665,25 @@
     </row>
     <row r="647" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="C647" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="D647" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G647" s="2" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="H647" s="2" t="s">
         <v>193</v>
@@ -45724,25 +45724,25 @@
     </row>
     <row r="648" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="C648" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="D648" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G648" s="2" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="H648" s="2" t="s">
         <v>193</v>
@@ -45783,25 +45783,25 @@
     </row>
     <row r="649" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="C649" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="D649" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F649" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G649" s="2" t="s">
         <v>2115</v>
-      </c>
-      <c r="G649" s="2" t="s">
-        <v>2121</v>
       </c>
       <c r="H649" s="2" t="s">
         <v>193</v>
@@ -45842,25 +45842,25 @@
     </row>
     <row r="650" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="C650" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="D650" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F650" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G650" s="2" t="s">
         <v>2115</v>
-      </c>
-      <c r="G650" s="2" t="s">
-        <v>2121</v>
       </c>
       <c r="H650" s="2" t="s">
         <v>193</v>
@@ -45901,25 +45901,25 @@
     </row>
     <row r="651" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="C651" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="D651" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="G651" s="2" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="H651" s="2" t="s">
         <v>193</v>
@@ -45960,16 +45960,16 @@
     </row>
     <row r="652" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="C652" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>83</v>
@@ -45978,7 +45978,7 @@
         <v>86</v>
       </c>
       <c r="G652" s="2" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="H652" s="2" t="s">
         <v>193</v>
@@ -46019,16 +46019,16 @@
     </row>
     <row r="653" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="C653" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="D653" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>83</v>
@@ -46037,7 +46037,7 @@
         <v>86</v>
       </c>
       <c r="G653" s="2" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="H653" s="2" t="s">
         <v>193</v>
@@ -46078,16 +46078,16 @@
     </row>
     <row r="654" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="C654" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="D654" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>83</v>
@@ -46096,7 +46096,7 @@
         <v>86</v>
       </c>
       <c r="G654" s="2" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="H654" s="2" t="s">
         <v>193</v>
@@ -46137,16 +46137,16 @@
     </row>
     <row r="655" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="C655" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="D655" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>83</v>
@@ -46155,7 +46155,7 @@
         <v>86</v>
       </c>
       <c r="G655" s="2" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="H655" s="2" t="s">
         <v>193</v>
@@ -46196,16 +46196,16 @@
     </row>
     <row r="656" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="C656" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="D656" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>83</v>
@@ -46214,7 +46214,7 @@
         <v>86</v>
       </c>
       <c r="G656" s="2" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="H656" s="2" t="s">
         <v>193</v>
@@ -46255,16 +46255,16 @@
     </row>
     <row r="657" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="C657" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="D657" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>83</v>
@@ -46273,7 +46273,7 @@
         <v>86</v>
       </c>
       <c r="G657" s="2" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="H657" s="2" t="s">
         <v>193</v>
@@ -46314,16 +46314,16 @@
     </row>
     <row r="658" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="C658" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="D658" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>83</v>
@@ -46332,7 +46332,7 @@
         <v>86</v>
       </c>
       <c r="G658" s="2" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="H658" s="2" t="s">
         <v>193</v>
@@ -46373,16 +46373,16 @@
     </row>
     <row r="659" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="C659" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="D659" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>83</v>
@@ -46391,7 +46391,7 @@
         <v>86</v>
       </c>
       <c r="G659" s="2" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="H659" s="2" t="s">
         <v>193</v>
@@ -46432,16 +46432,16 @@
     </row>
     <row r="660" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="C660" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="D660" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>83</v>
@@ -46450,7 +46450,7 @@
         <v>86</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="H660" s="2" t="s">
         <v>193</v>
@@ -46491,16 +46491,16 @@
     </row>
     <row r="661" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="C661" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="D661" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>83</v>
@@ -46509,7 +46509,7 @@
         <v>86</v>
       </c>
       <c r="G661" s="2" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="H661" s="2" t="s">
         <v>193</v>
@@ -46550,16 +46550,16 @@
     </row>
     <row r="662" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="C662" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="D662" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E662" s="2" t="s">
         <v>83</v>
@@ -46568,7 +46568,7 @@
         <v>86</v>
       </c>
       <c r="G662" s="2" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="H662" s="2" t="s">
         <v>193</v>
@@ -46609,16 +46609,16 @@
     </row>
     <row r="663" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="C663" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="D663" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E663" s="2" t="s">
         <v>83</v>
@@ -46627,7 +46627,7 @@
         <v>86</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="H663" s="2" t="s">
         <v>193</v>
@@ -46668,16 +46668,16 @@
     </row>
     <row r="664" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="C664" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="D664" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>83</v>
@@ -46686,7 +46686,7 @@
         <v>86</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="H664" s="2" t="s">
         <v>193</v>
@@ -46727,16 +46727,16 @@
     </row>
     <row r="665" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="C665" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="D665" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E665" s="2" t="s">
         <v>83</v>
@@ -46745,7 +46745,7 @@
         <v>86</v>
       </c>
       <c r="G665" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="H665" s="2" t="s">
         <v>193</v>
@@ -46786,16 +46786,16 @@
     </row>
     <row r="666" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C666" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="D666" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E666" s="2" t="s">
         <v>83</v>
@@ -46804,7 +46804,7 @@
         <v>86</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="H666" s="2" t="s">
         <v>193</v>
@@ -46845,16 +46845,16 @@
     </row>
     <row r="667" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="C667" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="D667" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E667" s="2" t="s">
         <v>83</v>
@@ -46863,7 +46863,7 @@
         <v>86</v>
       </c>
       <c r="G667" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="H667" s="2" t="s">
         <v>193</v>
@@ -46904,16 +46904,16 @@
     </row>
     <row r="668" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="C668" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="D668" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>83</v>
@@ -46922,7 +46922,7 @@
         <v>86</v>
       </c>
       <c r="G668" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="H668" s="2" t="s">
         <v>193</v>
@@ -46963,16 +46963,16 @@
     </row>
     <row r="669" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="C669" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="D669" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E669" s="2" t="s">
         <v>83</v>
@@ -46981,7 +46981,7 @@
         <v>86</v>
       </c>
       <c r="G669" s="2" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="H669" s="2" t="s">
         <v>193</v>
@@ -47022,16 +47022,16 @@
     </row>
     <row r="670" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="C670" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="D670" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>83</v>
@@ -47040,7 +47040,7 @@
         <v>86</v>
       </c>
       <c r="G670" s="2" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="H670" s="2" t="s">
         <v>193</v>
@@ -47081,16 +47081,16 @@
     </row>
     <row r="671" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="C671" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="D671" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>83</v>
@@ -47099,7 +47099,7 @@
         <v>86</v>
       </c>
       <c r="G671" s="2" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="H671" s="2" t="s">
         <v>193</v>
@@ -47140,16 +47140,16 @@
     </row>
     <row r="672" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="C672" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="D672" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>83</v>
@@ -47158,7 +47158,7 @@
         <v>86</v>
       </c>
       <c r="G672" s="2" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="H672" s="2" t="s">
         <v>193</v>
@@ -47199,16 +47199,16 @@
     </row>
     <row r="673" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="C673" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="D673" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E673" s="2" t="s">
         <v>83</v>
@@ -47217,7 +47217,7 @@
         <v>86</v>
       </c>
       <c r="G673" s="2" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="H673" s="2" t="s">
         <v>193</v>
@@ -47258,16 +47258,16 @@
     </row>
     <row r="674" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="C674" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="D674" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>83</v>
@@ -47276,7 +47276,7 @@
         <v>86</v>
       </c>
       <c r="G674" s="2" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="H674" s="2" t="s">
         <v>193</v>
@@ -47317,16 +47317,16 @@
     </row>
     <row r="675" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="C675" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D675" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E675" s="2" t="s">
         <v>83</v>
@@ -47335,7 +47335,7 @@
         <v>86</v>
       </c>
       <c r="G675" s="2" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="H675" s="2" t="s">
         <v>193</v>
@@ -47376,16 +47376,16 @@
     </row>
     <row r="676" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="C676" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="D676" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>83</v>
@@ -47394,7 +47394,7 @@
         <v>86</v>
       </c>
       <c r="G676" s="2" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="H676" s="2" t="s">
         <v>193</v>
@@ -47435,16 +47435,16 @@
     </row>
     <row r="677" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="C677" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="D677" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>83</v>
@@ -47453,7 +47453,7 @@
         <v>86</v>
       </c>
       <c r="G677" s="2" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="H677" s="2" t="s">
         <v>193</v>
@@ -47494,16 +47494,16 @@
     </row>
     <row r="678" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="C678" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="D678" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>83</v>
@@ -47512,7 +47512,7 @@
         <v>86</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="H678" s="2" t="s">
         <v>193</v>
@@ -47553,16 +47553,16 @@
     </row>
     <row r="679" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="C679" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="D679" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E679" s="2" t="s">
         <v>83</v>
@@ -47571,7 +47571,7 @@
         <v>86</v>
       </c>
       <c r="G679" s="2" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="H679" s="2" t="s">
         <v>193</v>
@@ -47612,16 +47612,16 @@
     </row>
     <row r="680" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="C680" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="D680" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>83</v>
@@ -47630,7 +47630,7 @@
         <v>86</v>
       </c>
       <c r="G680" s="2" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="H680" s="2" t="s">
         <v>193</v>
@@ -47671,16 +47671,16 @@
     </row>
     <row r="681" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="C681" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="D681" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>83</v>
@@ -47689,7 +47689,7 @@
         <v>86</v>
       </c>
       <c r="G681" s="2" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="H681" s="2" t="s">
         <v>193</v>
@@ -47730,16 +47730,16 @@
     </row>
     <row r="682" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="C682" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="D682" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E682" s="2" t="s">
         <v>83</v>
@@ -47748,7 +47748,7 @@
         <v>86</v>
       </c>
       <c r="G682" s="2" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="H682" s="2" t="s">
         <v>193</v>
@@ -47789,16 +47789,16 @@
     </row>
     <row r="683" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="C683" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="D683" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>83</v>
@@ -47807,7 +47807,7 @@
         <v>86</v>
       </c>
       <c r="G683" s="2" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="H683" s="2" t="s">
         <v>193</v>
@@ -47848,16 +47848,16 @@
     </row>
     <row r="684" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="C684" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="D684" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>83</v>
@@ -47866,7 +47866,7 @@
         <v>86</v>
       </c>
       <c r="G684" s="2" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="H684" s="2" t="s">
         <v>193</v>
@@ -47907,16 +47907,16 @@
     </row>
     <row r="685" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="C685" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="D685" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>83</v>
@@ -47925,7 +47925,7 @@
         <v>86</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="H685" s="2" t="s">
         <v>193</v>
@@ -47966,16 +47966,16 @@
     </row>
     <row r="686" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="C686" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="D686" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>83</v>
@@ -47984,7 +47984,7 @@
         <v>86</v>
       </c>
       <c r="G686" s="2" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="H686" s="2" t="s">
         <v>193</v>
@@ -48025,16 +48025,16 @@
     </row>
     <row r="687" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="C687" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="D687" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>83</v>
@@ -48043,7 +48043,7 @@
         <v>86</v>
       </c>
       <c r="G687" s="2" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="H687" s="2" t="s">
         <v>193</v>
@@ -48084,16 +48084,16 @@
     </row>
     <row r="688" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="C688" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="D688" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E688" s="2" t="s">
         <v>83</v>
@@ -48102,7 +48102,7 @@
         <v>86</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="H688" s="2" t="s">
         <v>193</v>
@@ -48143,16 +48143,16 @@
     </row>
     <row r="689" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="C689" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="D689" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E689" s="2" t="s">
         <v>83</v>
@@ -48161,7 +48161,7 @@
         <v>86</v>
       </c>
       <c r="G689" s="2" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="H689" s="2" t="s">
         <v>193</v>
@@ -48202,16 +48202,16 @@
     </row>
     <row r="690" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="C690" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="D690" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>83</v>
@@ -48220,7 +48220,7 @@
         <v>86</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="H690" s="2" t="s">
         <v>193</v>
@@ -48261,16 +48261,16 @@
     </row>
     <row r="691" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="C691" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="D691" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E691" s="2" t="s">
         <v>83</v>
@@ -48279,7 +48279,7 @@
         <v>86</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="H691" s="2" t="s">
         <v>193</v>
@@ -48320,16 +48320,16 @@
     </row>
     <row r="692" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="C692" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="D692" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E692" s="2" t="s">
         <v>83</v>
@@ -48338,7 +48338,7 @@
         <v>86</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="H692" s="2" t="s">
         <v>193</v>
@@ -48379,16 +48379,16 @@
     </row>
     <row r="693" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="C693" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="D693" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E693" s="2" t="s">
         <v>83</v>
@@ -48397,7 +48397,7 @@
         <v>86</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="H693" s="2" t="s">
         <v>193</v>
@@ -48438,16 +48438,16 @@
     </row>
     <row r="694" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="C694" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="D694" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E694" s="2" t="s">
         <v>83</v>
@@ -48456,7 +48456,7 @@
         <v>86</v>
       </c>
       <c r="G694" s="2" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="H694" s="2" t="s">
         <v>193</v>
@@ -48497,16 +48497,16 @@
     </row>
     <row r="695" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="C695" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="D695" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E695" s="2" t="s">
         <v>83</v>
@@ -48515,7 +48515,7 @@
         <v>86</v>
       </c>
       <c r="G695" s="2" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="H695" s="2" t="s">
         <v>193</v>
@@ -48556,16 +48556,16 @@
     </row>
     <row r="696" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="3" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="C696" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="D696" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E696" s="2" t="s">
         <v>83</v>
@@ -48574,7 +48574,7 @@
         <v>86</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="H696" s="2" t="s">
         <v>193</v>
@@ -48615,16 +48615,16 @@
     </row>
     <row r="697" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="3" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="C697" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="D697" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>83</v>
@@ -48633,7 +48633,7 @@
         <v>86</v>
       </c>
       <c r="G697" s="2" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="H697" s="2" t="s">
         <v>193</v>
@@ -48674,16 +48674,16 @@
     </row>
     <row r="698" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="3" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="C698" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="D698" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>83</v>
@@ -48692,7 +48692,7 @@
         <v>86</v>
       </c>
       <c r="G698" s="2" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="H698" s="2" t="s">
         <v>193</v>
@@ -48733,16 +48733,16 @@
     </row>
     <row r="699" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="3" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="C699" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="D699" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E699" s="2" t="s">
         <v>83</v>
@@ -48751,7 +48751,7 @@
         <v>86</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="H699" s="2" t="s">
         <v>193</v>
@@ -48792,16 +48792,16 @@
     </row>
     <row r="700" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="3" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="C700" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="D700" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E700" s="2" t="s">
         <v>83</v>
@@ -48810,7 +48810,7 @@
         <v>86</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="H700" s="2" t="s">
         <v>193</v>
@@ -48851,16 +48851,16 @@
     </row>
     <row r="701" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="3" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="C701" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D701" t="s">
         <v>2224</v>
-      </c>
-      <c r="D701" t="s">
-        <v>2230</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>83</v>
@@ -48869,7 +48869,7 @@
         <v>86</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="H701" s="2" t="s">
         <v>193</v>
@@ -48910,16 +48910,16 @@
     </row>
     <row r="702" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="3" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="C702" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="D702" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>83</v>
@@ -48928,7 +48928,7 @@
         <v>86</v>
       </c>
       <c r="G702" s="2" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="H702" s="2" t="s">
         <v>193</v>
@@ -48969,16 +48969,16 @@
     </row>
     <row r="703" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="3" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="C703" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="D703" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>83</v>
@@ -48987,7 +48987,7 @@
         <v>86</v>
       </c>
       <c r="G703" s="2" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="H703" s="2" t="s">
         <v>193</v>
@@ -49028,16 +49028,16 @@
     </row>
     <row r="704" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="3" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="C704" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="D704" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="E704" s="2" t="s">
         <v>1155</v>
@@ -49046,7 +49046,7 @@
         <v>188</v>
       </c>
       <c r="G704" s="2" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="H704" s="2" t="s">
         <v>13</v>
@@ -49087,16 +49087,16 @@
     </row>
     <row r="705" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="C705" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="D705" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="E705" s="2" t="s">
         <v>1155</v>
@@ -49105,7 +49105,7 @@
         <v>188</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="H705" s="2" t="s">
         <v>13</v>
@@ -49146,16 +49146,16 @@
     </row>
     <row r="706" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="3" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="C706" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="D706" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="E706" s="2" t="s">
         <v>1155</v>
@@ -49164,7 +49164,7 @@
         <v>188</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="H706" s="2" t="s">
         <v>13</v>
@@ -49205,16 +49205,16 @@
     </row>
     <row r="707" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="C707" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="D707" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="E707" s="2" t="s">
         <v>1155</v>
@@ -49223,7 +49223,7 @@
         <v>188</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="H707" s="2" t="s">
         <v>13</v>
@@ -49264,16 +49264,16 @@
     </row>
     <row r="708" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="3" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="B708" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C708" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D708" t="s">
         <v>2314</v>
-      </c>
-      <c r="C708" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D708" t="s">
-        <v>2320</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>1155</v>
@@ -49282,7 +49282,7 @@
         <v>188</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="H708" s="2" t="s">
         <v>13</v>
@@ -49323,16 +49323,16 @@
     </row>
     <row r="709" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C709" t="s">
         <v>2340</v>
       </c>
-      <c r="B709" s="2" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C709" t="s">
-        <v>2346</v>
-      </c>
       <c r="D709" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E709" s="2" t="s">
         <v>83</v>
@@ -49341,7 +49341,7 @@
         <v>52</v>
       </c>
       <c r="G709" s="2" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="H709" s="2" t="s">
         <v>1306</v>
@@ -49382,16 +49382,16 @@
     </row>
     <row r="710" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="3" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="C710" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="D710" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E710" s="2" t="s">
         <v>83</v>
@@ -49400,7 +49400,7 @@
         <v>52</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="H710" s="2" t="s">
         <v>1306</v>
@@ -49441,16 +49441,16 @@
     </row>
     <row r="711" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="C711" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="D711" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E711" s="2" t="s">
         <v>83</v>
@@ -49459,7 +49459,7 @@
         <v>52</v>
       </c>
       <c r="G711" s="2" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="H711" s="2" t="s">
         <v>1306</v>
@@ -49500,16 +49500,16 @@
     </row>
     <row r="712" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="3" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="C712" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="D712" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E712" s="2" t="s">
         <v>83</v>
@@ -49518,7 +49518,7 @@
         <v>52</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="H712" s="2" t="s">
         <v>1306</v>
@@ -49559,16 +49559,16 @@
     </row>
     <row r="713" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="C713" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="D713" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>83</v>
@@ -49577,7 +49577,7 @@
         <v>52</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="H713" s="2" t="s">
         <v>1306</v>
@@ -49618,16 +49618,16 @@
     </row>
     <row r="714" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="3" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="C714" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="D714" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>83</v>
@@ -49636,7 +49636,7 @@
         <v>52</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="H714" s="2" t="s">
         <v>1306</v>
@@ -49677,16 +49677,16 @@
     </row>
     <row r="715" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="C715" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D715" t="s">
         <v>2358</v>
-      </c>
-      <c r="D715" t="s">
-        <v>2364</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>83</v>
@@ -49695,7 +49695,7 @@
         <v>52</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="H715" s="2" t="s">
         <v>1306</v>
@@ -49736,16 +49736,16 @@
     </row>
     <row r="716" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="3" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="C716" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="D716" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>83</v>
@@ -49754,7 +49754,7 @@
         <v>52</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="H716" s="2" t="s">
         <v>1306</v>
@@ -49795,16 +49795,16 @@
     </row>
     <row r="717" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="B717" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="C717" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="D717" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -49813,7 +49813,7 @@
         <v>52</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="H717" s="2" t="s">
         <v>193</v>
@@ -49854,16 +49854,16 @@
     </row>
     <row r="718" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="3" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="B718" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="C718" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="D718" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>83</v>
@@ -49872,7 +49872,7 @@
         <v>52</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="H718" s="2" t="s">
         <v>193</v>
@@ -49913,16 +49913,16 @@
     </row>
     <row r="719" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="B719" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="C719" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="D719" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>83</v>
@@ -49931,7 +49931,7 @@
         <v>52</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="H719" s="2" t="s">
         <v>193</v>
@@ -49972,16 +49972,16 @@
     </row>
     <row r="720" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="3" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="B720" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="C720" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="D720" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -49990,7 +49990,7 @@
         <v>52</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="H720" s="2" t="s">
         <v>193</v>
@@ -50031,16 +50031,16 @@
     </row>
     <row r="721" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="B721" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="C721" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="D721" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>83</v>
@@ -50049,7 +50049,7 @@
         <v>52</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="H721" s="2" t="s">
         <v>193</v>
@@ -50090,16 +50090,16 @@
     </row>
     <row r="722" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="B722" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="C722" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="D722" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>83</v>
@@ -50108,7 +50108,7 @@
         <v>52</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="H722" s="2" t="s">
         <v>193</v>
@@ -50149,16 +50149,16 @@
     </row>
     <row r="723" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B723" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C723" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D723" t="s">
         <v>2378</v>
-      </c>
-      <c r="B723" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C723" t="s">
-        <v>2402</v>
-      </c>
-      <c r="D723" t="s">
-        <v>2384</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -50167,7 +50167,7 @@
         <v>52</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="H723" s="2" t="s">
         <v>193</v>
@@ -50208,16 +50208,16 @@
     </row>
     <row r="724" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="B724" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="C724" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="D724" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>83</v>
@@ -50226,7 +50226,7 @@
         <v>52</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="H724" s="2" t="s">
         <v>193</v>
@@ -50267,16 +50267,16 @@
     </row>
     <row r="725" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="B725" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="C725" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="D725" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>83</v>
@@ -50285,7 +50285,7 @@
         <v>52</v>
       </c>
       <c r="G725" s="2" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="H725" s="2" t="s">
         <v>193</v>
@@ -50326,16 +50326,16 @@
     </row>
     <row r="726" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="B726" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="C726" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="D726" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>11</v>
@@ -50344,7 +50344,7 @@
         <v>52</v>
       </c>
       <c r="G726" s="2" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="H726" s="2" t="s">
         <v>193</v>
@@ -50385,16 +50385,16 @@
     </row>
     <row r="727" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="B727" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="C727" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="D727" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>83</v>
@@ -50403,7 +50403,7 @@
         <v>52</v>
       </c>
       <c r="G727" s="2" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="H727" s="2" t="s">
         <v>193</v>
@@ -50444,16 +50444,16 @@
     </row>
     <row r="728" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="B728" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="C728" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="D728" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>83</v>
@@ -50462,7 +50462,7 @@
         <v>52</v>
       </c>
       <c r="G728" s="2" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="H728" s="2" t="s">
         <v>193</v>
